--- a/SCRUM/burndown_charts.xlsx
+++ b/SCRUM/burndown_charts.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t xml:space="preserve">SPRINT1</t>
   </si>
@@ -93,6 +93,9 @@
     <t xml:space="preserve">J2</t>
   </si>
   <si>
+    <t xml:space="preserve">J3</t>
+  </si>
+  <si>
     <t xml:space="preserve">L</t>
   </si>
   <si>
@@ -106,9 +109,6 @@
   </si>
   <si>
     <t xml:space="preserve">J0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J3</t>
   </si>
   <si>
     <t xml:space="preserve">J4</t>
@@ -268,13 +268,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -377,7 +385,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -450,6 +458,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -542,6 +551,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -588,6 +598,9 @@
                 <c:pt idx="2">
                   <c:v>21</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -601,11 +614,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="7005109"/>
-        <c:axId val="73607500"/>
+        <c:axId val="69939116"/>
+        <c:axId val="39300157"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="7005109"/>
+        <c:axId val="69939116"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +674,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73607500"/>
+        <c:crossAx val="39300157"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -669,7 +682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73607500"/>
+        <c:axId val="39300157"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -712,7 +725,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -734,7 +747,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7005109"/>
+        <c:crossAx val="69939116"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -754,7 +767,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -766,15 +779,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>200160</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:colOff>15840</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7420320</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>20160</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -782,8 +795,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="657360" y="5425920"/>
-        <a:ext cx="7220160" cy="4061160"/>
+        <a:off x="473040" y="5135040"/>
+        <a:ext cx="7219800" cy="4060800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -803,14 +816,14 @@
   </sheetPr>
   <dimension ref="B4:H42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N43" activeCellId="0" sqref="N43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K41" activeCellId="0" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="85.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="81.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="9.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.28"/>
@@ -822,324 +835,400 @@
       <c r="B4" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="E8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="D9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
+      <c r="E12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="E13" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="n">
+      <c r="D14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>2</v>
       </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="n">
+      <c r="D15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="n">
         <v>2</v>
       </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="D18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E19" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="E19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E20" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="E20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="D21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="3" t="n">
         <v>2</v>
       </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="0" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="0" t="n">
+      <c r="G24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="n">
         <f aca="false">SUM(D8:D22)</f>
         <v>45</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <f aca="false">D8+D9+D18+D20+D19+D21</f>
         <v>19</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <f aca="false">D22+D15+D14</f>
         <v>5</v>
       </c>
+      <c r="G25" s="1" t="n">
+        <f aca="false">D17+D16+D12+D13</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="5" t="n">
+      <c r="C38" s="7" t="n">
         <v>45</v>
       </c>
-      <c r="D38" s="6" t="n">
+      <c r="D38" s="8" t="n">
         <f aca="false">C38/4*3</f>
         <v>33.75</v>
       </c>
-      <c r="E38" s="6" t="n">
+      <c r="E38" s="8" t="n">
         <f aca="false">C38/4*2</f>
         <v>22.5</v>
       </c>
-      <c r="F38" s="6" t="n">
+      <c r="F38" s="8" t="n">
         <f aca="false">C38/4</f>
         <v>11.25</v>
       </c>
-      <c r="G38" s="6" t="n">
+      <c r="G38" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="7" t="n">
+      <c r="C39" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="D39" s="8" t="n">
-        <f aca="false">C39-19</f>
+      <c r="D39" s="10" t="n">
+        <f aca="false">C39-E25</f>
         <v>26</v>
       </c>
-      <c r="E39" s="8" t="n">
-        <f aca="false">D39-5</f>
+      <c r="E39" s="10" t="n">
+        <f aca="false">D39-F25</f>
         <v>21</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="F39" s="10" t="n">
+        <f aca="false">E39-G25</f>
+        <v>11</v>
+      </c>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H40" s="2"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H41" s="2"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H42" s="2"/>
+      <c r="H42" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1160,11 +1249,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1183,11 +1272,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/SCRUM/burndown_charts.xlsx
+++ b/SCRUM/burndown_charts.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t xml:space="preserve">SPRINT1</t>
   </si>
@@ -39,9 +39,6 @@
     <t xml:space="preserve">je veux une interface disponible à tous moments de la journée</t>
   </si>
   <si>
-    <t xml:space="preserve">En cours</t>
-  </si>
-  <si>
     <t xml:space="preserve">Je veux qu'on s'adresse à moi différemment selon mon statut (étudiant ou partenaire)</t>
   </si>
   <si>
@@ -81,9 +78,15 @@
     <t xml:space="preserve">Je veux que mon corpus soit stocké en base de données</t>
   </si>
   <si>
+    <t xml:space="preserve">Total :</t>
+  </si>
+  <si>
     <t xml:space="preserve">Je veux que mon corpus soit en français</t>
   </si>
   <si>
+    <t xml:space="preserve">Points réalisés :</t>
+  </si>
+  <si>
     <t xml:space="preserve">Je veux que mon modèle fonctionne sur Tensorflow.JS</t>
   </si>
   <si>
@@ -96,6 +99,9 @@
     <t xml:space="preserve">J3</t>
   </si>
   <si>
+    <t xml:space="preserve">J4</t>
+  </si>
+  <si>
     <t xml:space="preserve">L</t>
   </si>
   <si>
@@ -111,7 +117,7 @@
     <t xml:space="preserve">J0</t>
   </si>
   <si>
-    <t xml:space="preserve">J4</t>
+    <t xml:space="preserve">SPRINT2</t>
   </si>
 </sst>
 </file>
@@ -120,10 +126,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -145,6 +151,23 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FFEEEEEE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="15"/>
@@ -207,12 +230,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF0041"/>
+        <bgColor rgb="FFC00000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D1D5"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -227,11 +262,75 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dashed">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -268,48 +367,104 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -336,13 +491,13 @@
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FFBF0041"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -363,14 +518,14 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FFF7D1D5"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
-      <rgbColor rgb="FF2A6099"/>
+      <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
@@ -469,7 +624,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$C$37:$G$37</c:f>
+              <c:f>Feuil1!$C$32:$G$32</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -492,7 +647,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$38:$G$38</c:f>
+              <c:f>Feuil1!$C$33:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -562,7 +717,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$C$37:$G$37</c:f>
+              <c:f>Feuil1!$C$32:$G$32</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -585,7 +740,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$39:$G$39</c:f>
+              <c:f>Feuil1!$C$34:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -600,6 +755,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -614,11 +772,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="69939116"/>
-        <c:axId val="39300157"/>
+        <c:axId val="67612120"/>
+        <c:axId val="8452627"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69939116"/>
+        <c:axId val="67612120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,7 +832,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39300157"/>
+        <c:crossAx val="8452627"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -682,7 +840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39300157"/>
+        <c:axId val="8452627"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +905,399 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69939116"/>
+        <c:crossAx val="67612120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>BurndownChart Sprint #1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$C$73:$G$73</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>J0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>J2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>J3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>J4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$74:$G$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$C$73:$G$73</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>J0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>J2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>J3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>J4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$75:$G$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="54829681"/>
+        <c:axId val="25441974"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="54829681"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>jours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25441974"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="25441974"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54829681"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -779,15 +1329,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>15840</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>20160</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>173160</xdr:rowOff>
+      <xdr:colOff>6840</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -795,12 +1345,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="473040" y="5135040"/>
-        <a:ext cx="7219800" cy="4060800"/>
+        <a:off x="460080" y="3657960"/>
+        <a:ext cx="7219800" cy="4060440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>32400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>61560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="460080" y="11423520"/>
+        <a:ext cx="7219800" cy="4016880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -814,423 +1394,748 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:H42"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K41" activeCellId="0" sqref="K41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="81.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="9.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1018" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D3" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="10" t="n">
+        <f aca="false">SUM(D3:D17)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="17" t="n">
+        <f aca="false">D3+D4+D13+D15+D14+D16</f>
+        <v>19</v>
+      </c>
+      <c r="H18" s="17" t="n">
+        <f aca="false">D17+D10+D9</f>
         <v>5</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="s">
+      <c r="I18" s="17" t="n">
+        <f aca="false">D12+D11+D7+D8</f>
         <v>10</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="J18" s="17" t="n">
+        <f aca="false">D5+D6</f>
         <v>11</v>
       </c>
-      <c r="D14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="21" t="n">
+        <v>45</v>
+      </c>
+      <c r="D33" s="22" t="n">
+        <f aca="false">C33/4*3</f>
+        <v>33.75</v>
+      </c>
+      <c r="E33" s="22" t="n">
+        <f aca="false">C33/4*2</f>
+        <v>22.5</v>
+      </c>
+      <c r="F33" s="22" t="n">
+        <f aca="false">C33/4</f>
+        <v>11.25</v>
+      </c>
+      <c r="G33" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="23" t="n">
+        <v>45</v>
+      </c>
+      <c r="D34" s="24" t="n">
+        <f aca="false">C34-G18</f>
+        <v>26</v>
+      </c>
+      <c r="E34" s="24" t="n">
+        <f aca="false">D34-H18</f>
+        <v>21</v>
+      </c>
+      <c r="F34" s="24" t="n">
+        <f aca="false">E34-I18</f>
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2" t="s">
+      <c r="G34" s="24" t="n">
+        <f aca="false">F34-J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H37" s="18"/>
+    </row>
+    <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="2" t="s">
+      <c r="I56" s="10" t="n">
+        <f aca="false">SUM(D44:D58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H58" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="n">
-        <f aca="false">SUM(D8:D22)</f>
+      <c r="I58" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="17" t="n">
+        <f aca="false">D44+D45+D54+D56+D55+D57</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="17" t="n">
+        <f aca="false">D58+D51+D50</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="17" t="n">
+        <f aca="false">D53+D52+D48+D49</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="17" t="n">
+        <f aca="false">D46+D47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="2"/>
+    </row>
+    <row r="71" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+    </row>
+    <row r="72" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="21" t="n">
         <v>45</v>
       </c>
-      <c r="E25" s="1" t="n">
-        <f aca="false">D8+D9+D18+D20+D19+D21</f>
-        <v>19</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <f aca="false">D22+D15+D14</f>
-        <v>5</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <f aca="false">D17+D16+D12+D13</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="7" t="n">
+      <c r="D74" s="22" t="n">
+        <f aca="false">C74/4*3</f>
+        <v>33.75</v>
+      </c>
+      <c r="E74" s="22" t="n">
+        <f aca="false">C74/4*2</f>
+        <v>22.5</v>
+      </c>
+      <c r="F74" s="22" t="n">
+        <f aca="false">C74/4</f>
+        <v>11.25</v>
+      </c>
+      <c r="G74" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="23" t="n">
         <v>45</v>
       </c>
-      <c r="D38" s="8" t="n">
-        <f aca="false">C38/4*3</f>
-        <v>33.75</v>
-      </c>
-      <c r="E38" s="8" t="n">
-        <f aca="false">C38/4*2</f>
-        <v>22.5</v>
-      </c>
-      <c r="F38" s="8" t="n">
-        <f aca="false">C38/4</f>
-        <v>11.25</v>
-      </c>
-      <c r="G38" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="9" t="n">
+      <c r="D75" s="24" t="n">
+        <f aca="false">C75-G59</f>
         <v>45</v>
       </c>
-      <c r="D39" s="10" t="n">
-        <f aca="false">C39-E25</f>
-        <v>26</v>
-      </c>
-      <c r="E39" s="10" t="n">
-        <f aca="false">D39-F25</f>
-        <v>21</v>
-      </c>
-      <c r="F39" s="10" t="n">
-        <f aca="false">E39-G25</f>
-        <v>11</v>
-      </c>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H42" s="4"/>
-    </row>
+      <c r="E75" s="24" t="n">
+        <f aca="false">D75-H59</f>
+        <v>45</v>
+      </c>
+      <c r="F75" s="24" t="n">
+        <f aca="false">E75-I59</f>
+        <v>45</v>
+      </c>
+      <c r="G75" s="24" t="n">
+        <f aca="false">F75-J59</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H76" s="18"/>
+    </row>
+    <row r="77" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H77" s="18"/>
+    </row>
+    <row r="78" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H78" s="18"/>
+    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G57:J57"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/SCRUM/burndown_charts.xlsx
+++ b/SCRUM/burndown_charts.xlsx
@@ -132,6 +132,9 @@
     <t xml:space="preserve">Je veux qu'on s'adresse à moi différemment selon mon statut (étudiant ou partenaire)</t>
   </si>
   <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
     <t xml:space="preserve">Je veux un délai de réponse inférieur à 1s.</t>
   </si>
   <si>
@@ -148,9 +151,6 @@
   </si>
   <si>
     <t xml:space="preserve">Je veux rendre compte de l'application de ma méthodologie scrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je veux une api qui gère les codes erreurs NON-PRIORITAIRE</t>
   </si>
   <si>
     <t xml:space="preserve">Je veux une api qui gère l'async</t>
@@ -592,7 +592,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -824,11 +824,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="88157927"/>
-        <c:axId val="78479256"/>
+        <c:axId val="53098013"/>
+        <c:axId val="21939174"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88157927"/>
+        <c:axId val="53098013"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,7 +884,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78479256"/>
+        <c:crossAx val="21939174"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -892,7 +892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78479256"/>
+        <c:axId val="21939174"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +957,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88157927"/>
+        <c:crossAx val="53098013"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -984,7 +984,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1068,7 +1068,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$C$67:$G$67</c:f>
+              <c:f>Feuil1!$C$66:$G$66</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1091,21 +1091,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$68:$G$68</c:f>
+              <c:f>Feuil1!$C$67:$G$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.25</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.75</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1161,7 +1161,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$C$67:$G$67</c:f>
+              <c:f>Feuil1!$C$66:$G$66</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1184,24 +1184,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$69:$G$69</c:f>
+              <c:f>Feuil1!$C$68:$G$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,11 +1216,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="80839902"/>
-        <c:axId val="85919717"/>
+        <c:axId val="26763654"/>
+        <c:axId val="31445639"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80839902"/>
+        <c:axId val="26763654"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1276,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85919717"/>
+        <c:crossAx val="31445639"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1284,7 +1284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85919717"/>
+        <c:axId val="31445639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,7 +1349,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80839902"/>
+        <c:crossAx val="26763654"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1387,9 +1387,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6480</xdr:colOff>
+      <xdr:colOff>6120</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1398,7 +1398,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="460080" y="3657960"/>
-        <a:ext cx="7219440" cy="4060080"/>
+        <a:ext cx="7219080" cy="4059720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1412,14 +1412,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2880</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>32760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6480</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:colOff>6120</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1427,8 +1427,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="460080" y="10497960"/>
-        <a:ext cx="7219440" cy="4016520"/>
+        <a:off x="460080" y="10308960"/>
+        <a:ext cx="7219080" cy="4016160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1449,7 +1449,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K37" activeCellId="0" sqref="K37"/>
+      <selection pane="topLeft" activeCell="G46" activeCellId="0" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1917,7 +1917,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="2"/>
@@ -1933,8 +1933,8 @@
       <c r="D45" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="E45" s="8" t="n">
-        <v>3</v>
+      <c r="E45" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="2"/>
@@ -1942,7 +1942,7 @@
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
       <c r="B46" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>4</v>
@@ -1950,19 +1950,26 @@
       <c r="D46" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="E46" s="8" t="n">
-        <v>4</v>
+      <c r="E46" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="2"/>
+      <c r="H46" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="11" t="n">
+        <f aca="false">SUM(D43:D51)</f>
+        <v>32</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D47" s="8" t="n">
         <v>5</v>
@@ -1971,15 +1978,20 @@
         <v>2</v>
       </c>
       <c r="F47" s="9"/>
-      <c r="G47" s="2"/>
+      <c r="G47" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="D48" s="8" t="n">
         <v>5</v>
@@ -1988,15 +2000,26 @@
         <v>2</v>
       </c>
       <c r="F48" s="9"/>
-      <c r="G48" s="2"/>
+      <c r="G48" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D49" s="8" t="n">
         <v>5</v>
@@ -2005,15 +2028,30 @@
         <v>3</v>
       </c>
       <c r="F49" s="9"/>
-      <c r="G49" s="2"/>
+      <c r="G49" s="18" t="n">
+        <f aca="false">D51</f>
+        <v>1</v>
+      </c>
+      <c r="H49" s="18" t="n">
+        <f aca="false">D48+D47</f>
+        <v>10</v>
+      </c>
+      <c r="I49" s="18" t="n">
+        <f aca="false">D50+D49+D45</f>
+        <v>15</v>
+      </c>
+      <c r="J49" s="18" t="n">
+        <f aca="false">D46</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
       <c r="B50" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D50" s="8" t="n">
         <v>5</v>
@@ -2022,178 +2060,123 @@
         <v>3</v>
       </c>
       <c r="F50" s="9"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="11" t="n">
-        <f aca="false">SUM(D43:D52)</f>
-        <v>35</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
       <c r="B51" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" s="9"/>
-      <c r="G51" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-    </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" s="15" t="s">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="16"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="18" t="n">
-        <f aca="false">D52</f>
-        <v>1</v>
-      </c>
-      <c r="H53" s="18" t="n">
-        <f aca="false">D51+D48+D47+D44</f>
-        <v>16</v>
-      </c>
-      <c r="I53" s="18" t="n">
-        <f aca="false">D50+D49+D45</f>
-        <v>15</v>
-      </c>
-      <c r="J53" s="18" t="n">
-        <f aca="false">D46</f>
-        <v>3</v>
-      </c>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="2"/>
+    <row r="64" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
     </row>
     <row r="65" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
+      <c r="C65" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F66" s="20" t="s">
+      <c r="C66" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="22" t="n">
+        <f aca="false">I46</f>
+        <v>32</v>
+      </c>
+      <c r="D67" s="23" t="n">
+        <f aca="false">C67/4*3</f>
+        <v>24</v>
+      </c>
+      <c r="E67" s="23" t="n">
+        <f aca="false">C67/4*2</f>
+        <v>16</v>
+      </c>
+      <c r="F67" s="23" t="n">
+        <f aca="false">C67/4</f>
+        <v>8</v>
+      </c>
+      <c r="G67" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="24" t="n">
+        <f aca="false">I46</f>
+        <v>32</v>
+      </c>
+      <c r="D68" s="25" t="n">
+        <f aca="false">C68-G49</f>
         <v>31</v>
       </c>
-      <c r="G66" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F67" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="22" t="n">
-        <f aca="false">I50</f>
-        <v>35</v>
-      </c>
-      <c r="D68" s="23" t="n">
-        <f aca="false">C68/4*3</f>
-        <v>26.25</v>
-      </c>
-      <c r="E68" s="23" t="n">
-        <f aca="false">C68/4*2</f>
-        <v>17.5</v>
-      </c>
-      <c r="F68" s="23" t="n">
-        <f aca="false">C68/4</f>
-        <v>8.75</v>
-      </c>
-      <c r="G68" s="23" t="n">
-        <v>0</v>
+      <c r="E68" s="25" t="n">
+        <f aca="false">D68-H49</f>
+        <v>21</v>
+      </c>
+      <c r="F68" s="25" t="n">
+        <f aca="false">E68-I49</f>
+        <v>6</v>
+      </c>
+      <c r="G68" s="25" t="n">
+        <f aca="false">F68-J49</f>
+        <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="24" t="n">
-        <f aca="false">I50</f>
-        <v>35</v>
-      </c>
-      <c r="D69" s="25" t="n">
-        <f aca="false">C69-G53</f>
-        <v>34</v>
-      </c>
-      <c r="E69" s="25" t="n">
-        <f aca="false">D69-H53</f>
-        <v>18</v>
-      </c>
-      <c r="F69" s="25" t="n">
-        <f aca="false">E69-I53</f>
-        <v>3</v>
-      </c>
-      <c r="G69" s="25" t="n">
-        <f aca="false">F69-J53</f>
-        <v>0</v>
-      </c>
+      <c r="H69" s="19"/>
     </row>
     <row r="70" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H70" s="19"/>
@@ -2201,9 +2184,7 @@
     <row r="71" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H71" s="19"/>
     </row>
-    <row r="72" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H72" s="19"/>
-    </row>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2220,7 +2201,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="G47:J47"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/SCRUM/burndown_charts.xlsx
+++ b/SCRUM/burndown_charts.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t xml:space="preserve">SPRINT1</t>
   </si>
@@ -824,11 +824,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="53098013"/>
-        <c:axId val="21939174"/>
+        <c:axId val="96946812"/>
+        <c:axId val="59085036"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53098013"/>
+        <c:axId val="96946812"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,7 +884,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21939174"/>
+        <c:crossAx val="59085036"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -892,7 +892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21939174"/>
+        <c:axId val="59085036"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +957,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53098013"/>
+        <c:crossAx val="96946812"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1198,10 +1198,10 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,11 +1216,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="26763654"/>
-        <c:axId val="31445639"/>
+        <c:axId val="34471642"/>
+        <c:axId val="75286770"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="26763654"/>
+        <c:axId val="34471642"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1276,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31445639"/>
+        <c:crossAx val="75286770"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1284,7 +1284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31445639"/>
+        <c:axId val="75286770"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,7 +1349,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26763654"/>
+        <c:crossAx val="34471642"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1387,9 +1387,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6120</xdr:colOff>
+      <xdr:colOff>5760</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>52200</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1398,7 +1398,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="460080" y="3657960"/>
-        <a:ext cx="7219080" cy="4059720"/>
+        <a:ext cx="7218720" cy="4059360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1417,9 +1417,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6120</xdr:colOff>
+      <xdr:colOff>5760</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1428,7 +1428,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="460080" y="10308960"/>
-        <a:ext cx="7219080" cy="4016160"/>
+        <a:ext cx="7218720" cy="4015800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1448,8 +1448,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G46" activeCellId="0" sqref="G46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1457,8 +1457,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="81.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="6.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="4.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="2.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="1.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1018" style="0" width="9.14"/>
   </cols>
   <sheetData>
@@ -1950,8 +1952,8 @@
       <c r="D46" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>36</v>
+      <c r="E46" s="8" t="n">
+        <v>4</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="2"/>
@@ -2025,7 +2027,7 @@
         <v>5</v>
       </c>
       <c r="E49" s="8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="18" t="n">
@@ -2037,12 +2039,12 @@
         <v>10</v>
       </c>
       <c r="I49" s="18" t="n">
-        <f aca="false">D50+D49+D45</f>
-        <v>15</v>
+        <f aca="false">D44</f>
+        <v>3</v>
       </c>
       <c r="J49" s="18" t="n">
-        <f aca="false">D46</f>
-        <v>3</v>
+        <f aca="false">D46+D49+D50</f>
+        <v>13</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="E50" s="8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" s="9"/>
     </row>
@@ -2168,11 +2170,11 @@
       </c>
       <c r="F68" s="25" t="n">
         <f aca="false">E68-I49</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G68" s="25" t="n">
         <f aca="false">F68-J49</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
